--- a/public/lead_sample_excel.xlsx
+++ b/public/lead_sample_excel.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>9876543210</v>
+        <v>9876543222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
